--- a/medicine/Sexualité et sexologie/Symbole_de_genre/Symbole_de_genre.xlsx
+++ b/medicine/Sexualité et sexologie/Symbole_de_genre/Symbole_de_genre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un symbole de genre est un pictogramme ou un glyphe utilisé pour représenter le genre. On retrouve ce symbole notamment sur des panneaux d'information, comme dans les toilettes publiques.
 </t>
@@ -511,9 +523,11 @@
           <t>Mars et Vénus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forme du symbole de Mars est comparée à une lance à pointe de fer (une arme principalement utilisée par les hommes) et celle du symbole de Vénus à un miroir de bronze ou à une quenouille (associée aux femmes)[1]. Ces symboles ont été employés pour la première fois par Carl von Linné pour décrire le sexe des plantes en 1751[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme du symbole de Mars est comparée à une lance à pointe de fer (une arme principalement utilisée par les hommes) et celle du symbole de Vénus à un miroir de bronze ou à une quenouille (associée aux femmes). Ces symboles ont été employés pour la première fois par Carl von Linné pour décrire le sexe des plantes en 1751.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Toilettes publiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pictogrammes utilisés pour indiquer les toilettes publiques masculines et féminines sont devenus très répandus à partir des années 1960. Ces pictogrammes ont l'avantage d'être compris par une grande majorité de personnes à travers le monde, leur usage s'étant largement répandu au XXe siècle[3].
-Bien qu'ils apparaissent comme culturellement neutres, ces symboles « reflètent les croyances et les valeurs des cultures d'où ils proviennent et au sein desquels ils continuent à exister »[4]. Les toilettes genrées apparaissent en Europe à la fin du XIXe siècle : avec l'urbanisation et les mouvements hygiénistes, les premières toilettes publiques sont créés. D'abord réservées aux hommes, elles sont peu à peu ouvertes aux femmes. La séparation genrée obéit à une logique d'« hygiène morale », qui vise à contrôler la sexualité (en particulier celle des femmes et des classes populaires). La promiscuité hommes-femmes y est perçue comme un risque pour la santé de la population, d'où une stricte séparation[4].
-Au XXIe siècle, l'utilisation des symboles de genre est débattue dans les discussions autour des toilettes non-genrées, en particulier pour les personnes non-binaires[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pictogrammes utilisés pour indiquer les toilettes publiques masculines et féminines sont devenus très répandus à partir des années 1960. Ces pictogrammes ont l'avantage d'être compris par une grande majorité de personnes à travers le monde, leur usage s'étant largement répandu au XXe siècle.
+Bien qu'ils apparaissent comme culturellement neutres, ces symboles « reflètent les croyances et les valeurs des cultures d'où ils proviennent et au sein desquels ils continuent à exister ». Les toilettes genrées apparaissent en Europe à la fin du XIXe siècle : avec l'urbanisation et les mouvements hygiénistes, les premières toilettes publiques sont créés. D'abord réservées aux hommes, elles sont peu à peu ouvertes aux femmes. La séparation genrée obéit à une logique d'« hygiène morale », qui vise à contrôler la sexualité (en particulier celle des femmes et des classes populaires). La promiscuité hommes-femmes y est perçue comme un risque pour la santé de la population, d'où une stricte séparation.
+Au XXIe siècle, l'utilisation des symboles de genre est débattue dans les discussions autour des toilettes non-genrées, en particulier pour les personnes non-binaires. 
 </t>
         </is>
       </c>
